--- a/r5-LinkedCare-main/CodeSystem-at-core-cs-religion.xlsx
+++ b/r5-LinkedCare-main/CodeSystem-at-core-cs-religion.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-04T18:04:52+00:00</t>
+    <t>2023-10-05T14:03:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-main/CodeSystem-at-core-cs-religion.xlsx
+++ b/r5-LinkedCare-main/CodeSystem-at-core-cs-religion.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T14:03:16+00:00</t>
+    <t>2023-10-05T14:18:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-main/CodeSystem-at-core-cs-religion.xlsx
+++ b/r5-LinkedCare-main/CodeSystem-at-core-cs-religion.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,13 +63,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T14:18:17+00:00</t>
+    <t>2023-10-05T14:35:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>technikum-wien-treml</t>
+    <t>The Linked Care Consortium</t>
   </si>
   <si>
     <t>Contact</t>

--- a/r5-LinkedCare-main/CodeSystem-at-core-cs-religion.xlsx
+++ b/r5-LinkedCare-main/CodeSystem-at-core-cs-religion.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T14:35:20+00:00</t>
+    <t>2023-10-05T14:43:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-main/CodeSystem-at-core-cs-religion.xlsx
+++ b/r5-LinkedCare-main/CodeSystem-at-core-cs-religion.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T14:43:15+00:00</t>
+    <t>2023-10-05T14:49:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-main/CodeSystem-at-core-cs-religion.xlsx
+++ b/r5-LinkedCare-main/CodeSystem-at-core-cs-religion.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T14:49:24+00:00</t>
+    <t>2023-10-05T14:58:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-main/CodeSystem-at-core-cs-religion.xlsx
+++ b/r5-LinkedCare-main/CodeSystem-at-core-cs-religion.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T14:58:16+00:00</t>
+    <t>2023-10-17T09:41:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-main/CodeSystem-at-core-cs-religion.xlsx
+++ b/r5-LinkedCare-main/CodeSystem-at-core-cs-religion.xlsx
@@ -30,13 +30,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:2.16.840.1.113883.2.16.1.4.1 (use: OFFICIAL)</t>
+    <t>id: Uniform Resource Identifier (URI)#urn:oid:2.16.840.1.113883.2.16.1.4.1 (use: OFFICIAL)</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.2</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-17T09:41:40+00:00</t>
+    <t>2023-11-29T13:50:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-main/CodeSystem-at-core-cs-religion.xlsx
+++ b/r5-LinkedCare-main/CodeSystem-at-core-cs-religion.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-29T13:50:22+00:00</t>
+    <t>2023-11-29T14:36:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
